--- a/Administrative/NewPhasing.xlsx
+++ b/Administrative/NewPhasing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>week6</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>final controls and testings</t>
+  </si>
+  <si>
+    <t>week 8</t>
+  </si>
+  <si>
+    <t>7!</t>
+  </si>
+  <si>
+    <t>8!</t>
+  </si>
+  <si>
+    <t>exams</t>
+  </si>
+  <si>
+    <t>9!</t>
+  </si>
+  <si>
+    <t>week 6</t>
   </si>
 </sst>
 </file>
@@ -422,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,44 +543,68 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>24</v>
+      <c r="A23" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Administrative/NewPhasing.xlsx
+++ b/Administrative/NewPhasing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>week6</t>
   </si>
@@ -105,24 +105,6 @@
   </si>
   <si>
     <t>final controls and testings</t>
-  </si>
-  <si>
-    <t>week 8</t>
-  </si>
-  <si>
-    <t>7!</t>
-  </si>
-  <si>
-    <t>8!</t>
-  </si>
-  <si>
-    <t>exams</t>
-  </si>
-  <si>
-    <t>9!</t>
-  </si>
-  <si>
-    <t>week 6</t>
   </si>
 </sst>
 </file>
@@ -440,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,68 +525,44 @@
         <v>15</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>21</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
         <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
